--- a/Documents/Test.xlsx
+++ b/Documents/Test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Eclipse Workspace\Thesis\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Eclipse Workspace\Thesis\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28770" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28770" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -119,15 +125,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,7 +422,7 @@
   <dimension ref="B2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,334 +435,414 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="K9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="K15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
